--- a/data/trans_dic/P79$alquiler_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79$alquiler_2023-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.07774324492268418</v>
+        <v>0.07774324492268417</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.09871518076932335</v>
+        <v>0.09871518076932333</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.0892718080310657</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05287459646655078</v>
+        <v>0.05390858055435714</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07742063556256425</v>
+        <v>0.07422747445365789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07033360957159315</v>
+        <v>0.07074520432201736</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.110036459159471</v>
+        <v>0.1104973843640558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1308674560824788</v>
+        <v>0.128594801306279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1093652990228704</v>
+        <v>0.1101820938496827</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.016238274891884</v>
+        <v>0.01605180411536931</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01259001103632578</v>
+        <v>0.01299046126903869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01665584569284799</v>
+        <v>0.01669172012599237</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04014643724903618</v>
+        <v>0.04073586106284589</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03017357006069831</v>
+        <v>0.03264007230579632</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03132423782517806</v>
+        <v>0.03056759575300551</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.003087462552853304</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.004636702472601413</v>
+        <v>0.004636702472601412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.003860514857898892</v>
+        <v>0.003860514857898891</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0008928831182696919</v>
+        <v>0.0008828255147825771</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001233348247151222</v>
+        <v>0.0009445083925188674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001696714937039045</v>
+        <v>0.001647071610560388</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.007684746251250339</v>
+        <v>0.008366996875192295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01421191695565331</v>
+        <v>0.01466500424830242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008974019900358395</v>
+        <v>0.008410567714509135</v>
       </c>
     </row>
     <row r="13">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002263779774489075</v>
+        <v>0.00234654784733293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001718408447721401</v>
+        <v>0.001839109190279336</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008308449516735979</v>
+        <v>0.007410443655838387</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01380129230117327</v>
+        <v>0.01285823742519806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007840142671405557</v>
+        <v>0.008875885249092304</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01401585019113502</v>
+        <v>0.01455071651242857</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01846077580734272</v>
+        <v>0.01900645521455819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0179554799420389</v>
+        <v>0.01732016372562309</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02452918418184071</v>
+        <v>0.02506849016933415</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02919411680798937</v>
+        <v>0.03043637701038797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02550630073832807</v>
+        <v>0.02519368803818386</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22879</v>
+        <v>23326</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40897</v>
+        <v>39211</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>67587</v>
+        <v>67983</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47613</v>
+        <v>47813</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>69130</v>
+        <v>67930</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105095</v>
+        <v>105880</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15481</v>
+        <v>15303</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13933</v>
+        <v>14376</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34311</v>
+        <v>34385</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38273</v>
+        <v>38835</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33392</v>
+        <v>36122</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64528</v>
+        <v>62970</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1281</v>
+        <v>981</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3530</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8011</v>
+        <v>8723</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14756</v>
+        <v>15226</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18673</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="16">
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2034</v>
+        <v>2108</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3204</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8028</v>
+        <v>7160</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12400</v>
+        <v>11552</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14619</v>
+        <v>16551</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47581</v>
+        <v>49396</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65935</v>
+        <v>67884</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>125086</v>
+        <v>120660</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>83271</v>
+        <v>85102</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>104271</v>
+        <v>108708</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>177688</v>
+        <v>175510</v>
       </c>
     </row>
     <row r="24">
